--- a/Test Data Driven/AI-Generated/TestCase-020.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-020.xlsx
@@ -465,7 +465,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Data Files/AI-Generated/Common/actionSequence_1-test-data</t>
+          <t>Data Files/AI-Generated/Common/actionSequence_3-test-data</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
